--- a/data/trans_orig/EJER_MOD_TIEMPO-Edad-trans_orig.xlsx
+++ b/data/trans_orig/EJER_MOD_TIEMPO-Edad-trans_orig.xlsx
@@ -534,7 +534,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Nº medio de minutos/día en los que se realiza actividad física moderada</t>
+          <t>Nº medio de minutos/día en los que se realiza actividad física moderada (tasa de respuesta: 98,75%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/EJER_MOD_TIEMPO-Edad-trans_orig.xlsx
+++ b/data/trans_orig/EJER_MOD_TIEMPO-Edad-trans_orig.xlsx
@@ -656,7 +656,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>58,14</t>
+          <t>53,57</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -676,7 +676,7 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>51,26</t>
+          <t>46,07</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -696,7 +696,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>54,81</t>
+          <t>49,76</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
@@ -724,12 +724,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>47,37; 71,59</t>
+          <t>42,43; 66,79</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>42,0; 69,94</t>
+          <t>42,05; 69,43</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -739,17 +739,17 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>23,91; 37,87</t>
+          <t>23,96; 37,96</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>40,96; 62,49</t>
+          <t>35,49; 60,88</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>22,42; 37,7</t>
+          <t>22,24; 37,58</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -759,17 +759,17 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>22,06; 36,4</t>
+          <t>22,57; 37,08</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>47,28; 63,61</t>
+          <t>41,3; 59,89</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>35,21; 52,22</t>
+          <t>34,97; 52,16</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>25,23; 35,32</t>
+          <t>25,02; 35,25</t>
         </is>
       </c>
     </row>
@@ -796,7 +796,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>63,96</t>
+          <t>58,88</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -816,7 +816,7 @@
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>40,55</t>
+          <t>45,88</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
@@ -836,7 +836,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>51,59</t>
+          <t>52,37</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
@@ -864,12 +864,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>53,14; 80,17</t>
+          <t>46,95; 72,0</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>38,07; 55,48</t>
+          <t>37,28; 55,16</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -879,17 +879,17 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>29,01; 40,91</t>
+          <t>28,71; 41,38</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>32,87; 52,0</t>
+          <t>36,69; 57,63</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>10,67; 30,26</t>
+          <t>10,76; 30,17</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -899,17 +899,17 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>18,61; 27,59</t>
+          <t>18,57; 27,76</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>43,93; 59,36</t>
+          <t>44,17; 60,01</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>20,89; 38,93</t>
+          <t>20,21; 38,55</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>24,88; 32,73</t>
+          <t>24,87; 32,44</t>
         </is>
       </c>
     </row>
@@ -936,7 +936,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>60,72</t>
+          <t>60,8</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -956,7 +956,7 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>44,36</t>
+          <t>41,05</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
@@ -976,7 +976,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>52,21</t>
+          <t>51,0</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
@@ -1004,12 +1004,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>50,66; 72,12</t>
+          <t>50,56; 74,1</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>30,3; 41,04</t>
+          <t>30,39; 40,26</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -1019,17 +1019,17 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>18,52; 38,16</t>
+          <t>19,07; 36,86</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>35,92; 55,28</t>
+          <t>34,08; 50,02</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>26,31; 33,95</t>
+          <t>26,48; 33,56</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -1039,17 +1039,17 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>13,44; 21,99</t>
+          <t>13,4; 21,53</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>45,93; 59,86</t>
+          <t>45,22; 59,9</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>29,24; 35,35</t>
+          <t>29,71; 35,93</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>17,47; 28,51</t>
+          <t>17,21; 26,95</t>
         </is>
       </c>
     </row>
@@ -1076,7 +1076,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>49,51</t>
+          <t>50,21</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>32,65</t>
+          <t>32,85</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
@@ -1116,7 +1116,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>40,95</t>
+          <t>41,53</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
@@ -1144,12 +1144,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>43,26; 57,32</t>
+          <t>41,98; 60,05</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>7,43; 39,32</t>
+          <t>7,71; 39,66</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1159,17 +1159,17 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>17,94; 29,98</t>
+          <t>16,9; 29,82</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>27,37; 38,63</t>
+          <t>27,2; 39,57</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>28,03; 33,92</t>
+          <t>28,3; 33,94</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1179,17 +1179,17 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>13,13; 20,46</t>
+          <t>13,46; 20,85</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>36,46; 45,72</t>
+          <t>36,33; 47,28</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>12,13; 35,17</t>
+          <t>13,3; 35,3</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>16,23; 23,25</t>
+          <t>16,69; 23,34</t>
         </is>
       </c>
     </row>
@@ -1216,7 +1216,7 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>36,92</t>
+          <t>38,32</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
@@ -1236,7 +1236,7 @@
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>35,74</t>
+          <t>37,28</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
@@ -1256,7 +1256,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>36,28</t>
+          <t>37,78</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
@@ -1284,12 +1284,12 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>30,81; 47,36</t>
+          <t>31,21; 48,21</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>26,21; 34,97</t>
+          <t>26,2; 34,77</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -1299,17 +1299,17 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>17,12; 28,05</t>
+          <t>17,79; 28,86</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>30,21; 42,72</t>
+          <t>30,66; 45,42</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>22,3; 28,06</t>
+          <t>22,25; 28,16</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1319,17 +1319,17 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>13,07; 22,26</t>
+          <t>13,51; 22,72</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>31,95; 41,32</t>
+          <t>32,83; 44,34</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>25,18; 30,37</t>
+          <t>25,16; 30,59</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
@@ -1339,7 +1339,7 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>16,32; 23,02</t>
+          <t>16,21; 23,17</t>
         </is>
       </c>
     </row>
@@ -1356,7 +1356,7 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>33,53</t>
+          <t>30,48</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -1376,7 +1376,7 @@
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>20,86</t>
+          <t>21,71</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
@@ -1396,7 +1396,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>26,8</t>
+          <t>25,77</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
@@ -1424,12 +1424,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>27,54; 42,71</t>
+          <t>24,57; 38,59</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>21,1; 30,48</t>
+          <t>20,87; 30,36</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1439,17 +1439,17 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>13,52; 41,02</t>
+          <t>14,22; 44,09</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>16,98; 25,6</t>
+          <t>17,61; 28,58</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>4,87; 27,1</t>
+          <t>4,68; 27,02</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1459,17 +1459,17 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>7,93; 16,09</t>
+          <t>8,06; 15,79</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>22,59; 31,49</t>
+          <t>22,06; 30,69</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>7,63; 26,51</t>
+          <t>6,92; 26,66</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>11,82; 25,42</t>
+          <t>11,76; 24,77</t>
         </is>
       </c>
     </row>
@@ -1496,7 +1496,7 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>16,61</t>
+          <t>14,39</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
@@ -1516,7 +1516,7 @@
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>9,48</t>
+          <t>11,28</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
@@ -1536,7 +1536,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>12,23</t>
+          <t>12,48</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
@@ -1564,12 +1564,12 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>12,16; 24,17</t>
+          <t>10,0; 20,13</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>16,9; 27,07</t>
+          <t>16,5; 26,3</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
@@ -1579,17 +1579,17 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>11,22; 26,94</t>
+          <t>11,91; 27,83</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>7,19; 12,09</t>
+          <t>8,17; 15,15</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>11,58; 17,82</t>
+          <t>11,46; 18,08</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
@@ -1599,17 +1599,17 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>4,08; 10,6</t>
+          <t>4,08; 10,46</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>10,04; 15,53</t>
+          <t>10,16; 15,24</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>14,37; 19,98</t>
+          <t>14,51; 20,24</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>7,98; 15,45</t>
+          <t>8,06; 15,0</t>
         </is>
       </c>
     </row>
@@ -1636,7 +1636,7 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>42,87</t>
+          <t>44,93</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
@@ -1656,7 +1656,7 @@
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>29,87</t>
+          <t>32,57</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
@@ -1676,7 +1676,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>35,86</t>
+          <t>38,45</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
@@ -1704,12 +1704,12 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>39,7; 46,22</t>
+          <t>41,56; 49,16</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>21,61; 36,67</t>
+          <t>20,44; 36,65</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
@@ -1719,17 +1719,17 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>22,97; 29,11</t>
+          <t>23,06; 29,03</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>27,43; 32,48</t>
+          <t>30,04; 35,72</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>17,19; 26,59</t>
+          <t>16,51; 26,52</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
@@ -1739,17 +1739,17 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>15,28; 18,81</t>
+          <t>15,41; 18,87</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>34,04; 37,99</t>
+          <t>36,16; 40,78</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>21,61; 30,74</t>
+          <t>21,63; 30,71</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
@@ -1759,7 +1759,7 @@
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>19,49; 22,94</t>
+          <t>19,38; 22,82</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/EJER_MOD_TIEMPO-Edad-trans_orig.xlsx
+++ b/data/trans_orig/EJER_MOD_TIEMPO-Edad-trans_orig.xlsx
@@ -568,62 +568,62 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>Barcelona</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Barcelona</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="L2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="M2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="N2" s="3" t="inlineStr">
-        <is>
-          <t>Barcelona</t>
         </is>
       </c>
     </row>
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>50,43</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>30,6</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>54,12</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
           <t>53,57</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>51,63</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>54,12</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>30,6</t>
-        </is>
-      </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
+          <t>28,09</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>28,84</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>48,91</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
           <t>46,07</t>
         </is>
       </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>29,05</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>48,91</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>28,84</t>
-        </is>
-      </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
+          <t>39,85</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>29,73</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>51,52</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
           <t>49,76</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>41,81</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>51,52</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>29,73</t>
         </is>
       </c>
     </row>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>41,04; 65,5</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>23,96; 37,96</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>47,29; 62,96</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
           <t>42,43; 66,79</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>42,05; 69,43</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>47,29; 62,96</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>23,96; 37,96</t>
-        </is>
-      </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
+          <t>21,91; 36,18</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>22,57; 37,08</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>41,36; 60,11</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
           <t>35,49; 60,88</t>
         </is>
       </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>22,24; 37,58</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>41,36; 60,11</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>22,57; 37,08</t>
-        </is>
-      </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
+          <t>33,78; 48,89</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>25,02; 35,25</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>46,03; 58,24</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
           <t>41,3; 59,89</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>34,97; 52,16</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>46,03; 58,24</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>25,02; 35,25</t>
         </is>
       </c>
     </row>
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>44,92</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>34,49</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>44,52</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>58,88</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>45,5</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>44,52</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>34,49</t>
-        </is>
-      </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
+          <t>26,23</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>22,34</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>40,41</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
           <t>45,88</t>
         </is>
       </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>21,95</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>40,41</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>22,34</t>
-        </is>
-      </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
+          <t>35,14</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>28,29</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>42,35</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
           <t>52,37</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>31,84</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>42,35</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>28,29</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>37,39; 53,58</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>28,71; 41,38</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>37,52; 53,81</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
           <t>46,95; 72,0</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>37,28; 55,16</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>37,52; 53,81</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>28,71; 41,38</t>
-        </is>
-      </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
+          <t>21,43; 31,57</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>18,57; 27,76</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>29,55; 67,28</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
           <t>36,69; 57,63</t>
         </is>
       </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>10,76; 30,17</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>29,55; 67,28</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>18,57; 27,76</t>
-        </is>
-      </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
+          <t>31,16; 39,69</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>24,87; 32,44</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>36,05; 57,04</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
           <t>44,17; 60,01</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>20,21; 38,55</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>36,05; 57,04</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>24,87; 32,44</t>
         </is>
       </c>
     </row>
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>33,97</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>24,03</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>43,62</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
           <t>60,8</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>34,84</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>43,62</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>24,03</t>
-        </is>
-      </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
+          <t>29,45</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>16,79</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>27,72</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
           <t>41,05</t>
         </is>
       </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>29,89</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>27,72</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>16,79</t>
-        </is>
-      </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
+          <t>31,68</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>20,46</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>35,63</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
           <t>51,0</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>32,3</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>35,63</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>20,46</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>29,63; 39,13</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>19,07; 36,86</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>36,54; 52,67</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
           <t>50,56; 74,1</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>30,39; 40,26</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>36,54; 52,67</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>19,07; 36,86</t>
-        </is>
-      </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
+          <t>26,22; 33,16</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>13,4; 21,53</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>23,18; 33,38</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
           <t>34,08; 50,02</t>
         </is>
       </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>26,48; 33,56</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>23,18; 33,38</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>13,4; 21,53</t>
-        </is>
-      </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
+          <t>29,19; 34,9</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>17,21; 26,95</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>31,53; 41,8</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
           <t>45,22; 59,9</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>29,71; 35,93</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>31,53; 41,8</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>17,21; 26,95</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>37,22</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>22,7</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>47,57</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
           <t>50,21</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>22,95</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>47,57</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>22,7</t>
-        </is>
-      </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
+          <t>30,9</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>16,59</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>26,93</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
           <t>32,85</t>
         </is>
       </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>31,03</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>26,93</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>16,59</t>
-        </is>
-      </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
+          <t>33,99</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>19,55</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>37,43</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
           <t>41,53</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>26,12</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>37,43</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>19,55</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>32,11; 42,71</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>16,9; 29,82</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>41,08; 56,81</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
           <t>41,98; 60,05</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>7,71; 39,66</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>41,08; 56,81</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>16,9; 29,82</t>
-        </is>
-      </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
+          <t>28,25; 33,8</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>13,46; 20,85</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>23,04; 31,43</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
           <t>27,2; 39,57</t>
         </is>
       </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>28,3; 33,94</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>23,04; 31,43</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>13,46; 20,85</t>
-        </is>
-      </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
+          <t>31,3; 36,95</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>16,69; 23,34</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>33,2; 42,36</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
           <t>36,33; 47,28</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>13,3; 35,3</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>33,2; 42,36</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>16,69; 23,34</t>
         </is>
       </c>
     </row>
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>30,59</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>22,55</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>39,08</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
           <t>38,32</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>30,21</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>39,08</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>22,55</t>
-        </is>
-      </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
+          <t>24,08</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>17,09</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>25,18</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
           <t>37,28</t>
         </is>
       </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>25,06</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>25,18</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>17,09</t>
-        </is>
-      </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
+          <t>27,37</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>19,52</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>31,86</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
           <t>37,78</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>27,72</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>31,86</t>
-        </is>
-      </c>
-      <c r="N12" s="2" t="inlineStr">
-        <is>
-          <t>19,52</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
+          <t>26,74; 35,03</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>17,79; 28,86</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>31,9; 48,69</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
           <t>31,21; 48,21</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>26,2; 34,77</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>31,9; 48,69</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>17,79; 28,86</t>
-        </is>
-      </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
+          <t>21,29; 27,18</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>13,51; 22,72</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>20,85; 30,68</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
           <t>30,66; 45,42</t>
         </is>
       </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>22,25; 28,16</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>20,85; 30,68</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>13,51; 22,72</t>
-        </is>
-      </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
+          <t>25,0; 30,42</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>16,21; 23,17</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>27,69; 37,34</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
           <t>32,83; 44,34</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>25,16; 30,59</t>
-        </is>
-      </c>
-      <c r="M13" s="2" t="inlineStr">
-        <is>
-          <t>27,69; 37,34</t>
-        </is>
-      </c>
-      <c r="N13" s="2" t="inlineStr">
-        <is>
-          <t>16,21; 23,17</t>
         </is>
       </c>
     </row>
@@ -1356,62 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>26,04</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>22,95</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>28,39</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
           <t>30,48</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>25,48</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>28,39</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>22,95</t>
-        </is>
-      </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
+          <t>25,63</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>11,13</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>21,19</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
           <t>21,71</t>
         </is>
       </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>14,08</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>21,19</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>11,13</t>
-        </is>
-      </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
+          <t>25,82</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>16,36</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>24,74</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
           <t>25,77</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>17,67</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>24,74</t>
-        </is>
-      </c>
-      <c r="N14" s="2" t="inlineStr">
-        <is>
-          <t>16,36</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
+          <t>21,49; 30,96</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>14,22; 44,09</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>23,47; 34,23</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
           <t>24,57; 38,59</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>20,87; 30,36</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>23,47; 34,23</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>14,22; 44,09</t>
-        </is>
-      </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
+          <t>22,5; 29,51</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>8,06; 15,79</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>17,73; 25,59</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
           <t>17,61; 28,58</t>
         </is>
       </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>4,68; 27,02</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>17,73; 25,59</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>8,06; 15,79</t>
-        </is>
-      </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
+          <t>23,03; 28,99</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>11,76; 24,77</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>21,82; 28,42</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
           <t>22,06; 30,69</t>
-        </is>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>6,92; 26,66</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="inlineStr">
-        <is>
-          <t>21,82; 28,42</t>
-        </is>
-      </c>
-      <c r="N15" s="2" t="inlineStr">
-        <is>
-          <t>11,76; 24,77</t>
         </is>
       </c>
     </row>
@@ -1496,62 +1496,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>21,18</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>17,66</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>11,04</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
           <t>14,39</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>21,38</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>13,99</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>6,43</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>8,96</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>11,28</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>16,8</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
         <is>
           <t>11,04</t>
         </is>
       </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>17,66</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>11,28</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>14,24</t>
-        </is>
-      </c>
-      <c r="I16" s="2" t="inlineStr">
-        <is>
-          <t>8,96</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>6,43</t>
-        </is>
-      </c>
-      <c r="K16" s="2" t="inlineStr">
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>9,81</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
         <is>
           <t>12,48</t>
-        </is>
-      </c>
-      <c r="L16" s="2" t="inlineStr">
-        <is>
-          <t>17,04</t>
-        </is>
-      </c>
-      <c r="M16" s="2" t="inlineStr">
-        <is>
-          <t>9,81</t>
-        </is>
-      </c>
-      <c r="N16" s="2" t="inlineStr">
-        <is>
-          <t>11,04</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>16,37; 26,18</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>11,91; 27,83</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>8,55; 14,67</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
           <t>10,0; 20,13</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>16,5; 26,3</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>8,55; 14,67</t>
-        </is>
-      </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>11,91; 27,83</t>
-        </is>
-      </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
+          <t>11,26; 17,49</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>4,08; 10,46</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>6,64; 12,36</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
           <t>8,17; 15,15</t>
         </is>
       </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>11,46; 18,08</t>
-        </is>
-      </c>
-      <c r="I17" s="2" t="inlineStr">
-        <is>
-          <t>6,64; 12,36</t>
-        </is>
-      </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>4,08; 10,46</t>
-        </is>
-      </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
+          <t>14,27; 19,98</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>8,06; 15,0</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>7,91; 12,32</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
           <t>10,16; 15,24</t>
-        </is>
-      </c>
-      <c r="L17" s="2" t="inlineStr">
-        <is>
-          <t>14,51; 20,24</t>
-        </is>
-      </c>
-      <c r="M17" s="2" t="inlineStr">
-        <is>
-          <t>7,91; 12,32</t>
-        </is>
-      </c>
-      <c r="N17" s="2" t="inlineStr">
-        <is>
-          <t>8,06; 15,0</t>
         </is>
       </c>
     </row>
@@ -1636,62 +1636,62 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
+          <t>35,42</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>25,5</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>39,8</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
           <t>44,93</t>
         </is>
       </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>31,69</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>39,8</t>
-        </is>
-      </c>
-      <c r="F18" s="2" t="inlineStr">
-        <is>
-          <t>25,5</t>
-        </is>
-      </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
+          <t>26,04</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>16,96</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>27,76</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
           <t>32,57</t>
         </is>
       </c>
-      <c r="H18" s="2" t="inlineStr">
-        <is>
-          <t>23,36</t>
-        </is>
-      </c>
-      <c r="I18" s="2" t="inlineStr">
-        <is>
-          <t>27,76</t>
-        </is>
-      </c>
-      <c r="J18" s="2" t="inlineStr">
-        <is>
-          <t>16,96</t>
-        </is>
-      </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
+          <t>30,57</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>21,01</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>33,57</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
           <t>38,45</t>
-        </is>
-      </c>
-      <c r="L18" s="2" t="inlineStr">
-        <is>
-          <t>27,4</t>
-        </is>
-      </c>
-      <c r="M18" s="2" t="inlineStr">
-        <is>
-          <t>33,57</t>
-        </is>
-      </c>
-      <c r="N18" s="2" t="inlineStr">
-        <is>
-          <t>21,01</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1704,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
+          <t>33,12; 37,8</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>23,06; 29,03</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>37,02; 43,14</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
           <t>41,56; 49,16</t>
         </is>
       </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>20,44; 36,65</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>37,02; 43,14</t>
-        </is>
-      </c>
-      <c r="F19" s="2" t="inlineStr">
-        <is>
-          <t>23,06; 29,03</t>
-        </is>
-      </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
+          <t>24,65; 27,52</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>15,41; 18,87</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>25,42; 31,58</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
           <t>30,04; 35,72</t>
         </is>
       </c>
-      <c r="H19" s="2" t="inlineStr">
-        <is>
-          <t>16,51; 26,52</t>
-        </is>
-      </c>
-      <c r="I19" s="2" t="inlineStr">
-        <is>
-          <t>25,42; 31,58</t>
-        </is>
-      </c>
-      <c r="J19" s="2" t="inlineStr">
-        <is>
-          <t>15,41; 18,87</t>
-        </is>
-      </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
+          <t>29,35; 31,94</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>19,38; 22,82</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>31,85; 35,94</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
           <t>36,16; 40,78</t>
-        </is>
-      </c>
-      <c r="L19" s="2" t="inlineStr">
-        <is>
-          <t>21,63; 30,71</t>
-        </is>
-      </c>
-      <c r="M19" s="2" t="inlineStr">
-        <is>
-          <t>31,85; 35,94</t>
-        </is>
-      </c>
-      <c r="N19" s="2" t="inlineStr">
-        <is>
-          <t>19,38; 22,82</t>
         </is>
       </c>
     </row>
